--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4B5E388-2259-4A4B-99C4-C7F5EE1407F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320"/>
   </bookViews>
   <sheets>
     <sheet name="AssetAddress" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -34,11 +33,19 @@
     <t>path</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>Cube</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Cube.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -356,11 +363,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -374,11 +381,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>123</v>
-      </c>
-      <c r="B2">
-        <v>1234</v>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -544,5 +551,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -367,7 +367,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,7 +38,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Cube.prefab</t>
+    <t>sword</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/sword.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Cube.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/broom.png</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broom</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +383,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -385,23 +401,23 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>124</v>
-      </c>
-      <c r="B3">
-        <v>1235</v>
+      <c r="B3" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>125</v>
-      </c>
-      <c r="B4">
-        <v>1236</v>
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,6 +56,20 @@
   <si>
     <t>broom</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flameball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Fireball.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Flameball.prefab</t>
   </si>
 </sst>
 </file>
@@ -383,7 +397,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -421,19 +435,19 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>126</v>
-      </c>
-      <c r="B5">
-        <v>1237</v>
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>127</v>
-      </c>
-      <c r="B6">
-        <v>1238</v>
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="AssetAddress" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,14 @@
   </si>
   <si>
     <t>Assets/Resource/Prefab/Flameball.prefab</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Meteor.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,7 +405,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -451,11 +459,11 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>128</v>
-      </c>
-      <c r="B7">
-        <v>1239</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,31 @@
   </si>
   <si>
     <t>Assets/Resource/Prefab/Flameball.prefab</t>
+  </si>
+  <si>
+    <t>Knight_Mode_UI</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Knight_Mode_UI.png</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Mage_Mode_UI.png</t>
+  </si>
+  <si>
+    <t>Mage_Mode_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp_UI</t>
+  </si>
+  <si>
+    <t>Hp_UI_Del</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Hp_UI.png</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Hp_UI_Del.png</t>
   </si>
 </sst>
 </file>
@@ -397,10 +422,14 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="45.5" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -451,35 +480,35 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>128</v>
-      </c>
-      <c r="B7">
-        <v>1239</v>
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>129</v>
-      </c>
-      <c r="B8">
-        <v>1240</v>
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>130</v>
-      </c>
-      <c r="B9">
-        <v>1241</v>
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>131</v>
-      </c>
-      <c r="B10">
-        <v>1242</v>
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>Assets/Resource/Sprite/UISprite/Hp_UI_Del.png</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Meteor.prefab</t>
   </si>
 </sst>
 </file>
@@ -422,7 +428,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -512,11 +518,11 @@
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>132</v>
-      </c>
-      <c r="B11">
-        <v>1243</v>
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -428,7 +428,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -66,12 +66,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Assets/Resource/Prefab/Fireball.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Prefab/Flameball.prefab</t>
-  </si>
-  <si>
     <t>Knight_Mode_UI</t>
   </si>
   <si>
@@ -100,7 +94,13 @@
     <t>Meteor</t>
   </si>
   <si>
-    <t>Assets/Resource/Prefab/Meteor.prefab</t>
+    <t>Assets/Resource/Prefab/Projectile/Fireball.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Flameball.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Meteor.prefab</t>
   </si>
 </sst>
 </file>
@@ -428,7 +428,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -474,7 +474,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -482,44 +482,44 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,6 +101,12 @@
   </si>
   <si>
     <t>Assets/Resource/Prefab/Projectile/Meteor.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/TimeStop.prefab</t>
+  </si>
+  <si>
+    <t>TimeStop</t>
   </si>
 </sst>
 </file>
@@ -428,7 +434,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -526,11 +532,11 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>133</v>
-      </c>
-      <c r="B12">
-        <v>1244</v>
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,47 +66,60 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Assets/Resource/Sprite/UISprite/Knight_Mode_UI.png</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Mage_Mode_UI.png</t>
+  </si>
+  <si>
+    <t>Mage_Mode_UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hp_UI</t>
+  </si>
+  <si>
+    <t>Hp_UI_Del</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Hp_UI.png</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Hp_UI_Del.png</t>
+  </si>
+  <si>
+    <t>Meteor</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Fireball.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Flameball.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Meteor.prefab</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/TimeStop.prefab</t>
+  </si>
+  <si>
+    <t>TimeStop</t>
+  </si>
+  <si>
     <t>Knight_Mode_UI</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Sprite/UISprite/Knight_Mode_UI.png</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Sprite/UISprite/Mage_Mode_UI.png</t>
-  </si>
-  <si>
-    <t>Mage_Mode_UI</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hp_UI</t>
-  </si>
-  <si>
-    <t>Hp_UI_Del</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Sprite/UISprite/Hp_UI.png</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Sprite/UISprite/Hp_UI_Del.png</t>
-  </si>
-  <si>
-    <t>Meteor</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Prefab/Projectile/Fireball.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Prefab/Projectile/Flameball.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Prefab/Projectile/Meteor.prefab</t>
-  </si>
-  <si>
-    <t>Assets/Resource/Prefab/Projectile/TimeStop.prefab</t>
-  </si>
-  <si>
-    <t>TimeStop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Game_Clear_UI.png</t>
+  </si>
+  <si>
+    <t>Game_Clear_UI</t>
+  </si>
+  <si>
+    <t>Game_Over_UI</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Sprite/UISprite/Game_Over_UI.png</t>
   </si>
 </sst>
 </file>
@@ -434,7 +447,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -480,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -488,71 +501,71 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>134</v>
-      </c>
-      <c r="B13">
-        <v>1245</v>
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>135</v>
-      </c>
-      <c r="B14">
-        <v>1246</v>
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -120,6 +120,12 @@
   </si>
   <si>
     <t>Assets/Resource/Sprite/UISprite/Game_Over_UI.png</t>
+  </si>
+  <si>
+    <t>Assets/Resource/VFX/PlayerVFX/Hit_vfx/Hit_vfx/Hit_vfx.prefab</t>
+  </si>
+  <si>
+    <t>Hit_vfx</t>
   </si>
 </sst>
 </file>
@@ -447,7 +453,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -569,11 +575,11 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>136</v>
-      </c>
-      <c r="B15">
-        <v>1247</v>
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\Project_Oz\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -122,10 +122,11 @@
     <t>Assets/Resource/Sprite/UISprite/Game_Over_UI.png</t>
   </si>
   <si>
-    <t>Assets/Resource/VFX/PlayerVFX/Hit_vfx/Hit_vfx/Hit_vfx.prefab</t>
-  </si>
-  <si>
     <t>Hit_vfx</t>
+  </si>
+  <si>
+    <t>Assets/Resource/VFX/PlayerVFX/Hit_vfx/Hit_vfx/Holy hit.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +454,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -576,10 +577,10 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
         <v>29</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\Project_Oz\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A3F91-230A-4C9B-A16F-8045F19A984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-5685" windowWidth="16440" windowHeight="28320"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20655" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="AssetAddress" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,13 +127,21 @@
   </si>
   <si>
     <t>Assets/Resource/VFX/PlayerVFX/Hit_vfx/Hit_vfx/Holy hit.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/VFX/PlayerMageVFX/Ozmagicmove111_VFX/Ozmagicmove_vfx/Ozmagicmove_vfx.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ozmagicmove_vfx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -450,11 +459,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -584,11 +593,11 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>137</v>
-      </c>
-      <c r="B16">
-        <v>1248</v>
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Desktop\aa\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,14 @@
   </si>
   <si>
     <t>Hit_vfx</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Explosion/MeteorExplosion.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorExplosion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +461,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,11 +591,11 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>137</v>
-      </c>
-      <c r="B16">
-        <v>1248</v>
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Game\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,6 +126,13 @@
   </si>
   <si>
     <t>Hit_vfx</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Material/TimeStopSkybox.mat</t>
+  </si>
+  <si>
+    <t>TimeStopSkybox</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -453,7 +460,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -583,11 +590,11 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>137</v>
-      </c>
-      <c r="B16">
-        <v>1248</v>
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">

--- a/Assets/Resource/Xlsx/AssetAddress.xlsx
+++ b/Assets/Resource/Xlsx/AssetAddress.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ProjectOz\Assets\Resource\Xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KGA\Documents\GitHub\ProjectOz\Assets\Resource\Xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{120A3F91-230A-4C9B-A16F-8045F19A984D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="20655" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="20655" windowHeight="11295"/>
   </bookViews>
   <sheets>
     <sheet name="AssetAddress" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,12 +135,26 @@
   <si>
     <t>Ozmagicmove_vfx</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Assets/Resource/Prefab/Projectile/Explosion/MeteorExplosion.prefab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeteorExplosion</t>
+  </si>
+  <si>
+    <t>Assets/Resource/Material/TimeStopSkybox.mat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TimeStopSkybox</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -459,11 +472,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -601,19 +614,19 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>138</v>
-      </c>
-      <c r="B17">
-        <v>1249</v>
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>139</v>
-      </c>
-      <c r="B18">
-        <v>1250</v>
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
